--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -4,36 +4,237 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Products" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="1" r:id="rId1"/>
+    <sheet name="SubCategories" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>Fruits &amp; Veggies</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Ready to Cook</t>
   </si>
   <si>
     <t>Cooking Essentials</t>
+  </si>
+  <si>
+    <t>Fruits &amp;amp; Veggies</t>
+  </si>
+  <si>
+    <t>Beauty Care</t>
+  </si>
+  <si>
+    <t>Household Needs</t>
+  </si>
+  <si>
+    <t>Bakery</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>Dairy &amp;amp; Eggs</t>
+  </si>
+  <si>
+    <t>Baby Care</t>
+  </si>
+  <si>
+    <t>Readymade Foods</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Fresh Fruits</t>
+  </si>
+  <si>
+    <t>Noodles</t>
+  </si>
+  <si>
+    <t>Dessert Mixes</t>
+  </si>
+  <si>
+    <t>Beauty Accessories</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Pappad</t>
+  </si>
+  <si>
+    <t>Breakfast/Dinner items</t>
+  </si>
+  <si>
+    <t>Soup packs</t>
+  </si>
+  <si>
+    <t>Foodgrains</t>
+  </si>
+  <si>
+    <t>Dal &amp;amp; Pulses</t>
+  </si>
+  <si>
+    <t>Masala &amp;amp; Spices</t>
+  </si>
+  <si>
+    <t>Atta &amp;amp; Flour</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Bath &amp;amp; Hand Wash</t>
+  </si>
+  <si>
+    <t>Fragrances &amp;amp; Deos</t>
+  </si>
+  <si>
+    <t>Health &amp;amp; Medicine</t>
+  </si>
+  <si>
+    <t>Feminine Products</t>
+  </si>
+  <si>
+    <t>Hair Care</t>
+  </si>
+  <si>
+    <t>All Purpose Cleaners</t>
+  </si>
+  <si>
+    <t>Detergent &amp;amp; Dishwash</t>
+  </si>
+  <si>
+    <t>Kitchen Accessories</t>
+  </si>
+  <si>
+    <t>Freshners &amp;amp; Repellents</t>
+  </si>
+  <si>
+    <t>Mops Brush &amp;amp; Scrubs</t>
+  </si>
+  <si>
+    <t>Disposables</t>
+  </si>
+  <si>
+    <t>Bread &amp;amp; Jam</t>
+  </si>
+  <si>
+    <t>Cakes &amp;amp; Icecreams</t>
+  </si>
+  <si>
+    <t>Puff &amp;amp; Sandwich</t>
+  </si>
+  <si>
+    <t>Cookies &amp;amp; Biscuits</t>
+  </si>
+  <si>
+    <t>Crunchy Snacks</t>
+  </si>
+  <si>
+    <t>Chocolates &amp;amp; Candies</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Health Drinks</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Milk &amp;amp; Curd</t>
+  </si>
+  <si>
+    <t>Ghee</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Cheese &amp;amp; Butter</t>
+  </si>
+  <si>
+    <t>Panner</t>
+  </si>
+  <si>
+    <t>Diaper &amp;amp; Wipes</t>
+  </si>
+  <si>
+    <t>Baby Food</t>
+  </si>
+  <si>
+    <t>Baby Products</t>
+  </si>
+  <si>
+    <t>Sauces &amp;amp; Ketchup</t>
+  </si>
+  <si>
+    <t>Pickles &amp;amp; Chutney</t>
+  </si>
+  <si>
+    <t>Breakfast Cereals</t>
+  </si>
+  <si>
+    <t>Pens &amp;amp; Pencils</t>
+  </si>
+  <si>
+    <t>Scissors &amp;amp; Glue</t>
+  </si>
+  <si>
+    <t>Notebooks</t>
+  </si>
+  <si>
+    <t>Pooja Needs</t>
+  </si>
+  <si>
+    <t>Sub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -61,8 +262,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,37 +570,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>